--- a/template/U.xlsx
+++ b/template/U.xlsx
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1663,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="14">
+      <c r="C37" s="30">
         <f>F27</f>
         <v>1.8275466713098161</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="14"/>
-      <c r="C42" s="14">
+      <c r="C42" s="30">
         <f>F27</f>
         <v>1.8275466713098161</v>
       </c>
@@ -1835,9 +1835,9 @@
         <v>52</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="14">
-        <f>F32</f>
-        <v>0</v>
+      <c r="C47" s="30">
+        <f>F27</f>
+        <v>1.8275466713098161</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>36</v>

--- a/template/U.xlsx
+++ b/template/U.xlsx
@@ -711,47 +711,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>438978</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34542</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="圖片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1192695" y="7760806"/>
-          <a:ext cx="1068457" cy="340997"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>489545</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
@@ -770,7 +729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -811,7 +770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -827,6 +786,43 @@
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="33333" t="1" b="2514"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341783" y="7156175"/>
+          <a:ext cx="927652" cy="355272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1123,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/template/U.xlsx
+++ b/template/U.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>工程名稱:</t>
   </si>
@@ -252,6 +252,14 @@
   </si>
   <si>
     <t>水理計算書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1181,7 @@
       </c>
       <c r="H4" s="42">
         <f ca="1">TODAY()</f>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="I4" s="43"/>
     </row>
@@ -1487,7 +1495,7 @@
         <v>1.0609904446282039</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I26" s="11"/>
     </row>
@@ -1525,7 +1533,9 @@
       <c r="E28" s="15">
         <v>18.000000000000011</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="17"/>
       <c r="I28" s="11"/>
